--- a/homeWay/goHome.xlsx
+++ b/homeWay/goHome.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="122">
   <si>
     <t>起点</t>
   </si>
@@ -79,30 +79,12 @@
     <t>自驾万仙山</t>
   </si>
   <si>
-    <t>鹤壁 山城区</t>
-  </si>
-  <si>
-    <t>76公里</t>
-  </si>
-  <si>
-    <t>汉庭酒店（鹤壁山城百货大楼店）</t>
-  </si>
-  <si>
     <t>鹤壁 淇县</t>
   </si>
   <si>
-    <t>40公里</t>
-  </si>
-  <si>
-    <t>1小时</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>朝歌、纣王之墓</t>
-  </si>
-  <si>
     <t>鹤壁淇县（朝歌）游云梦山</t>
   </si>
   <si>
@@ -234,10 +216,6 @@
   </si>
   <si>
     <t>西安</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水调歌头温泉酒店</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -524,10 +502,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>300元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>228元</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -559,10 +533,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>399元</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -577,6 +547,52 @@
   <si>
     <t>800元</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山海关、老龙头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦江之星（鹤壁兴鹤大街裕隆购物广场店）</t>
+  </si>
+  <si>
+    <t>87公里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>152元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤壁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤壁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20公里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘星台、纣王之墓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>淇县朝歌陈婆造心经浮图、扯淡碑、摘星台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>340元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>富都国际饭店</t>
   </si>
 </sst>
 </file>
@@ -648,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -767,6 +783,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -776,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +855,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,40 +885,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,47 +1205,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J29"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="4" width="14.875" customWidth="1"/>
+    <col min="3" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="38.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="19"/>
+      <c r="B2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="20"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="B3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>5</v>
@@ -1255,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
@@ -1267,65 +1300,67 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
-        <f>B4+1</f>
+        <f t="shared" ref="B5:B14" si="0">B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="H5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="16">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -1337,126 +1372,126 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="24"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="16">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>11</v>
@@ -1471,342 +1506,333 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>21</v>
+        <v>89</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="20">
-        <f>B13+1</f>
+      <c r="B14" s="21">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="39"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="21"/>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="20">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="21">
         <f>B14+1</f>
         <v>12</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <f>B17+1</f>
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="J19" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="36">
+        <f>B19+1</f>
+        <v>14</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="21"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="8" t="s">
+      <c r="F20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <f>B20+1</f>
+        <v>15</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
-        <f>B16+1</f>
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="H22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="27">
-        <f>B18+1</f>
-        <v>14</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
-        <f>B19+1</f>
-        <v>15</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="20">
-        <f>B21+1</f>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="21">
+        <f>B22+1</f>
         <v>16</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="B24" s="22"/>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="B23" s="21"/>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
-        <f>B22+1</f>
-        <v>17</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
-        <f>B24+1</f>
-        <v>18</v>
+        <f>B23+1</f>
+        <v>17</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="D25" s="26"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="8" t="s">
-        <v>60</v>
+      <c r="G25" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <f>B25+1</f>
-        <v>19</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <f>B26+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="14"/>
@@ -1816,19 +1842,19 @@
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <f>B27+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="14"/>
@@ -1836,69 +1862,98 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="3">
+        <f>B28+1</f>
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="14"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H22:H23"/>
+  <mergeCells count="31">
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J14" r:id="rId1"/>
     <hyperlink ref="J12" r:id="rId2"/>
-    <hyperlink ref="J15" r:id="rId3"/>
-    <hyperlink ref="J16" r:id="rId4"/>
-    <hyperlink ref="G18" r:id="rId5" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
-    <hyperlink ref="G13" r:id="rId6" location="ctm_ref=hod_sr_lst_dl_n_1_2"/>
-    <hyperlink ref="J18" r:id="rId7"/>
-    <hyperlink ref="J19" r:id="rId8"/>
-    <hyperlink ref="J20" r:id="rId9"/>
-    <hyperlink ref="G22" r:id="rId10" location="ctm_ref=hod_sr_lst_dl_n_1_6"/>
-    <hyperlink ref="G25" r:id="rId11" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
-    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="J16" r:id="rId3"/>
+    <hyperlink ref="J17" r:id="rId4"/>
+    <hyperlink ref="G19" r:id="rId5" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
+    <hyperlink ref="G13" r:id="rId6" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
+    <hyperlink ref="J19" r:id="rId7"/>
+    <hyperlink ref="J20" r:id="rId8"/>
+    <hyperlink ref="J21" r:id="rId9"/>
+    <hyperlink ref="G23" r:id="rId10" location="ctm_ref=hod_sr_lst_dl_n_1_6"/>
+    <hyperlink ref="G26" r:id="rId11" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
+    <hyperlink ref="G4" r:id="rId12" location="ctm_ref=hod_sr_lst_dl_n_1_4"/>
     <hyperlink ref="G10" r:id="rId13" location="ctm_ref=hod_sr_lst_dl_n_1_2"/>
     <hyperlink ref="G5" r:id="rId14" location="ctm_ref=hod_sr_lst_dl_n_1_2"/>
     <hyperlink ref="G11" r:id="rId15" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
     <hyperlink ref="J9" r:id="rId16"/>
-    <hyperlink ref="G15" r:id="rId17" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
+    <hyperlink ref="G16" r:id="rId17" location="ctm_ref=hod_sr_lst_dl_n_1_1"/>
     <hyperlink ref="G8" r:id="rId18" location="ctm_ref=hod_sr_lst_dl_n_1_8"/>
-    <hyperlink ref="J17" r:id="rId19"/>
-    <hyperlink ref="G19" r:id="rId20" location="ctm_ref=hod_sr_lst_dl_n_1_2"/>
+    <hyperlink ref="J18" r:id="rId19"/>
+    <hyperlink ref="G20" r:id="rId20" location="ctm_ref=hod_sr_lst_dl_n_1_2"/>
+    <hyperlink ref="J15" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1908,14 +1963,17 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/homeWay/goHome.xlsx
+++ b/homeWay/goHome.xlsx
@@ -377,10 +377,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>林州红旗渠迎宾馆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>邯郸金喜鹊旅馆</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -593,6 +589,10 @@
   </si>
   <si>
     <t>富都国际饭店</t>
+  </si>
+  <si>
+    <t>林州红旗渠迎宾馆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -858,6 +858,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,10 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,12 +900,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,25 +918,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,7 +1211,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4:G24"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1228,24 +1228,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="B3" s="18"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>5</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
@@ -1319,10 +1319,10 @@
         <v>76</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -1344,7 +1344,7 @@
         <v>75</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="14" t="s">
@@ -1357,10 +1357,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -1388,10 +1388,10 @@
         <v>65</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="3"/>
@@ -1401,23 +1401,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1441,7 +1441,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>67</v>
@@ -1466,13 +1466,13 @@
         <v>80</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="16"/>
     </row>
@@ -1488,10 +1488,10 @@
         <v>16</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>11</v>
@@ -1513,66 +1513,66 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="34"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="17"/>
       <c r="J15" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="22"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1586,10 +1586,10 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="9" t="s">
@@ -1597,40 +1597,40 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <f>B14+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>97</v>
+      <c r="D17" s="33"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="22"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="14"/>
       <c r="J18" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
@@ -1645,10 +1645,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>27</v>
@@ -1662,11 +1662,11 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="36">
+      <c r="B20" s="24">
         <f>B19+1</f>
         <v>14</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -1678,27 +1678,27 @@
       <c r="F20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>107</v>
+      <c r="G20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="34"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="3"/>
       <c r="J21" s="8" t="s">
         <v>34</v>
@@ -1709,17 +1709,17 @@
         <f>B20+1</f>
         <v>15</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>35</v>
@@ -1727,7 +1727,7 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <f>B22+1</f>
         <v>16</v>
       </c>
@@ -1743,11 +1743,11 @@
       <c r="F23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="33" t="s">
-        <v>108</v>
+      <c r="H23" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>51</v>
@@ -1755,7 +1755,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="B24" s="22"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1768,8 +1768,8 @@
       <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="34"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="3" t="s">
         <v>56</v>
       </c>
@@ -1780,17 +1780,17 @@
         <f>B23+1</f>
         <v>17</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>37</v>
@@ -1802,17 +1802,17 @@
         <f>B25+1</f>
         <v>18</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1896,21 +1896,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1927,6 +1912,21 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
